--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FE99CE-972F-4C33-BBC1-E4D67B06DAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140ACD3-70BB-47B8-A057-98AA3209DF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,24 @@
   </si>
   <si>
     <t>NGC-3478/T2333</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2653</t>
+  </si>
+  <si>
+    <t>P32AR-CH</t>
+  </si>
+  <si>
+    <t>P32DR-CH</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
+  </si>
+  <si>
+    <t>PR8ASCH</t>
   </si>
 </sst>
 </file>
@@ -542,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF64F86F-E670-4311-855B-F41E50B27A51}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,4 +1011,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E796CA-F151-4EE2-A8A6-38BBA0814BC9}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140ACD3-70BB-47B8-A057-98AA3209DF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40CEFF-29BE-4292-922D-C49F69D4114F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>PR8ASCH</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T1756</t>
   </si>
 </sst>
 </file>
@@ -562,7 +569,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E796CA-F151-4EE2-A8A6-38BBA0814BC9}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1173,4 +1180,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705ADEF-897E-4700-A586-09A7875A6D46}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40CEFF-29BE-4292-922D-C49F69D4114F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C109E7-7CDB-4046-AAD3-04010D8C9881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +146,12 @@
   </si>
   <si>
     <t>NGC-3479/T1756</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3236/T3235</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705ADEF-897E-4700-A586-09A7875A6D46}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,4 +1339,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37869E06-3EEB-4588-9616-472478CB9081}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C109E7-7CDB-4046-AAD3-04010D8C9881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891E466-299E-4E57-AA9A-E00116BC930B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -152,6 +153,12 @@
   </si>
   <si>
     <t>NGC-2930/T3236/T3235</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
@@ -576,7 +583,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
+      <selection activeCell="A8" sqref="A8:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37869E06-3EEB-4588-9616-472478CB9081}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,4 +1488,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF2BC5-B8B0-44BA-AD9C-569BF8137E32}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891E466-299E-4E57-AA9A-E00116BC930B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC849E-5062-46CD-9FE9-8A4545CF3F25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -159,6 +160,12 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF2BC5-B8B0-44BA-AD9C-569BF8137E32}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,4 +1647,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC57F6-B474-4B1A-B2E8-DD498C04075E}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC849E-5062-46CD-9FE9-8A4545CF3F25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479ED65D-930E-49AC-BF45-2BDC6EAECBF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="44">
   <si>
     <t>Wg</t>
   </si>
@@ -166,6 +167,12 @@
   </si>
   <si>
     <t>NGC-3103/T2064</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2486/T2485</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -593,15 +600,15 @@
       <selection activeCell="A8" sqref="A8:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -609,7 +616,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -621,7 +628,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -631,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -643,86 +650,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -745,15 +752,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -761,7 +768,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -773,7 +780,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,86 +802,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -897,15 +904,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -913,7 +920,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -925,7 +932,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -935,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,86 +954,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1049,15 +1056,15 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1072,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1084,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1099,96 +1106,96 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1208,18 +1215,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1234,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1246,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1261,86 +1268,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1363,15 +1370,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1386,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1398,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1413,76 +1420,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1505,15 +1512,15 @@
       <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1528,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1540,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1555,86 +1562,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1653,18 +1660,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC57F6-B474-4B1A-B2E8-DD498C04075E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1679,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1691,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1706,87 +1713,229 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5AB918-1FC0-464E-B3F8-D6B5523F146D}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479ED65D-930E-49AC-BF45-2BDC6EAECBF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E697410C-A6C4-430F-8396-CEBC5C4E841F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
+    <sheet name="Greece" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -173,6 +174,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3189</t>
   </si>
 </sst>
 </file>
@@ -600,15 +607,15 @@
       <selection activeCell="A8" sqref="A8:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -616,7 +623,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,7 +635,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,87 +657,229 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDCF20F-33C9-4FC6-83A1-BB5EC039A2A5}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -752,15 +901,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -768,7 +917,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -780,7 +929,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,86 +951,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -904,15 +1053,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -920,7 +1069,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,7 +1081,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,86 +1103,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1056,15 +1205,15 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1221,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1233,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,96 +1255,96 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1218,15 +1367,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1383,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1395,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1268,86 +1417,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1370,15 +1519,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1535,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1547,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1408,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,76 +1569,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1512,15 +1661,15 @@
       <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1677,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1689,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1562,86 +1711,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1664,14 +1813,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1679,7 +1828,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1691,7 +1840,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1701,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1713,86 +1862,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1811,19 +1960,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5AB918-1FC0-464E-B3F8-D6B5523F146D}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1980,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1843,7 +1992,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1865,76 +2014,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E697410C-A6C4-430F-8396-CEBC5C4E841F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD90A9-C875-4EE3-9CEA-F64AD4A6B049}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
     <sheet name="Greece" sheetId="20" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
+    <sheet name="Austria" sheetId="22" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="23" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -180,6 +183,27 @@
   </si>
   <si>
     <t>NGC-4119/T3189</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>MZXSDR240</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -755,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDCF20F-33C9-4FC6-83A1-BB5EC039A2A5}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -880,6 +904,447 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91C47AA-C1A3-4E36-AB34-C5E4D32C6AF5}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3330F59-BC6F-4ED8-83A0-78CC8C0F3299}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1D089-C139-4E49-A4F9-180596A67F0C}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD90A9-C875-4EE3-9CEA-F64AD4A6B049}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF83B8F-26DA-4340-8296-315B3C6C9299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
     <sheet name="Austria" sheetId="22" r:id="rId12"/>
     <sheet name="Denmark" sheetId="23" r:id="rId13"/>
+    <sheet name="Russia" sheetId="25" r:id="rId14"/>
+    <sheet name="Finland" sheetId="26" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="59">
   <si>
     <t>Wg</t>
   </si>
@@ -204,6 +207,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2917</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2887</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2979</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -921,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91C47AA-C1A3-4E36-AB34-C5E4D32C6AF5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1358,6 +1379,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3D743-1554-4AE4-B7DE-CDEA663CAA18}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF108C34-345F-49D3-B824-CC3D6A098A6F}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF10AFE8-03DA-4B3D-8AAB-CFE02FA3A36F}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0F211B-57AC-4A31-97DE-F32C83533323}">
   <dimension ref="A1:D21"/>

--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF83B8F-26DA-4340-8296-315B3C6C9299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC4FAEE-B04E-4774-B4B8-D2C92815D51A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="25" r:id="rId14"/>
     <sheet name="Finland" sheetId="26" r:id="rId15"/>
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
+    <sheet name="Norway" sheetId="28" r:id="rId17"/>
+    <sheet name="Poland" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="63">
   <si>
     <t>Wg</t>
   </si>
@@ -225,6 +227,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3121/T3119</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3086</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF10AFE8-03DA-4B3D-8AAB-CFE02FA3A36F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
@@ -1724,6 +1738,295 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F6364-EA67-4942-9838-591D865DA8BE}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F42D3-B5ED-4E3A-8326-AD6E2C978B8A}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
+++ b/Test Data/Gallery_PanelNode_Repeaters_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC4FAEE-B04E-4774-B4B8-D2C92815D51A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DA94C6-27EB-4D7C-A558-212038002680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="11" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
     <sheet name="Norway" sheetId="28" r:id="rId17"/>
     <sheet name="Poland" sheetId="29" r:id="rId18"/>
+    <sheet name="UK" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="65">
   <si>
     <t>Wg</t>
   </si>
@@ -239,6 +240,12 @@
   </si>
   <si>
     <t>NGC-2931/T3086</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3356/T3355</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -301,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -324,11 +331,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -345,6 +389,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1825,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F6364-EA67-4942-9838-591D865DA8BE}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2110,6 +2169,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF6634C-F05D-45BF-8F86-61E12C4082CF}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0F211B-57AC-4A31-97DE-F32C83533323}">
   <dimension ref="A1:D21"/>
